--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>33.7600371175594</v>
+        <v>0.028147</v>
       </c>
       <c r="H2">
-        <v>33.7600371175594</v>
+        <v>0.084441</v>
       </c>
       <c r="I2">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J2">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9218602339762</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N2">
-        <v>11.9218602339762</v>
+        <v>51.97477</v>
       </c>
       <c r="O2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q2">
-        <v>402.4824440093919</v>
+        <v>0.4876446170633334</v>
       </c>
       <c r="R2">
-        <v>402.4824440093919</v>
+        <v>4.38880155357</v>
       </c>
       <c r="S2">
-        <v>0.1624621012766464</v>
+        <v>0.0001330966339756278</v>
       </c>
       <c r="T2">
-        <v>0.1624621012766464</v>
+        <v>0.0001330966339756277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>33.7600371175594</v>
+        <v>0.028147</v>
       </c>
       <c r="H3">
-        <v>33.7600371175594</v>
+        <v>0.084441</v>
       </c>
       <c r="I3">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J3">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.53895892256346</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N3">
-        <v>6.53895892256346</v>
+        <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q3">
-        <v>220.7554959359386</v>
+        <v>0.1855022311776667</v>
       </c>
       <c r="R3">
-        <v>220.7554959359386</v>
+        <v>1.669520080599</v>
       </c>
       <c r="S3">
-        <v>0.08910799035319877</v>
+        <v>5.063056517141783E-05</v>
       </c>
       <c r="T3">
-        <v>0.08910799035319877</v>
+        <v>5.063056517141782E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>33.7600371175594</v>
+        <v>0.028147</v>
       </c>
       <c r="H4">
-        <v>33.7600371175594</v>
+        <v>0.084441</v>
       </c>
       <c r="I4">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J4">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.169131330974</v>
+        <v>0.111195</v>
       </c>
       <c r="N4">
-        <v>53.169131330974</v>
+        <v>0.333585</v>
       </c>
       <c r="O4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q4">
-        <v>1794.991847242072</v>
+        <v>0.003129805665</v>
       </c>
       <c r="R4">
-        <v>1794.991847242072</v>
+        <v>0.028168250985</v>
       </c>
       <c r="S4">
-        <v>0.7245487390018711</v>
+        <v>8.54242176439834E-07</v>
       </c>
       <c r="T4">
-        <v>0.7245487390018711</v>
+        <v>8.542421764398338E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.825953909486833</v>
+        <v>0.028147</v>
       </c>
       <c r="H5">
-        <v>0.825953909486833</v>
+        <v>0.084441</v>
       </c>
       <c r="I5">
-        <v>0.02388116936828374</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J5">
-        <v>0.02388116936828374</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9218602339762</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N5">
-        <v>11.9218602339762</v>
+        <v>214.856537</v>
       </c>
       <c r="O5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q5">
-        <v>9.846907068608253</v>
+        <v>2.015855648979667</v>
       </c>
       <c r="R5">
-        <v>9.846907068608253</v>
+        <v>18.142700840817</v>
       </c>
       <c r="S5">
-        <v>0.003974705573504788</v>
+        <v>0.0005502031439939018</v>
       </c>
       <c r="T5">
-        <v>0.003974705573504788</v>
+        <v>0.0005502031439939016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.825953909486833</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H6">
-        <v>0.825953909486833</v>
+        <v>110.924753</v>
       </c>
       <c r="I6">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="J6">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.53895892256346</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N6">
-        <v>6.53895892256346</v>
+        <v>51.97477</v>
       </c>
       <c r="O6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q6">
-        <v>5.400878686065099</v>
+        <v>640.5876138313122</v>
       </c>
       <c r="R6">
-        <v>5.400878686065099</v>
+        <v>5765.28852448181</v>
       </c>
       <c r="S6">
-        <v>0.00218006552369751</v>
+        <v>0.1748405543382707</v>
       </c>
       <c r="T6">
-        <v>0.00218006552369751</v>
+        <v>0.1748405543382707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.825953909486833</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H7">
-        <v>0.825953909486833</v>
+        <v>110.924753</v>
       </c>
       <c r="I7">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="J7">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.169131330974</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N7">
-        <v>53.169131330974</v>
+        <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q7">
-        <v>43.91525188683683</v>
+        <v>243.6824430588408</v>
       </c>
       <c r="R7">
-        <v>43.91525188683683</v>
+        <v>2193.141987529567</v>
       </c>
       <c r="S7">
-        <v>0.01772639827108145</v>
+        <v>0.06651014241766351</v>
       </c>
       <c r="T7">
-        <v>0.01772639827108145</v>
+        <v>0.06651014241766351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>36.97491766666666</v>
+      </c>
+      <c r="H8">
+        <v>110.924753</v>
+      </c>
+      <c r="I8">
+        <v>0.9652396186039789</v>
+      </c>
+      <c r="J8">
+        <v>0.9652396186039789</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.111195</v>
+      </c>
+      <c r="N8">
+        <v>0.333585</v>
+      </c>
+      <c r="O8">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P8">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q8">
+        <v>4.111425969945</v>
+      </c>
+      <c r="R8">
+        <v>37.002833729505</v>
+      </c>
+      <c r="S8">
+        <v>0.001122163432737308</v>
+      </c>
+      <c r="T8">
+        <v>0.001122163432737308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>36.97491766666666</v>
+      </c>
+      <c r="H9">
+        <v>110.924753</v>
+      </c>
+      <c r="I9">
+        <v>0.9652396186039789</v>
+      </c>
+      <c r="J9">
+        <v>0.9652396186039789</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N9">
+        <v>214.856537</v>
+      </c>
+      <c r="O9">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P9">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q9">
+        <v>2648.100921906707</v>
+      </c>
+      <c r="R9">
+        <v>23832.90829716036</v>
+      </c>
+      <c r="S9">
+        <v>0.7227667584153075</v>
+      </c>
+      <c r="T9">
+        <v>0.7227667584153074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.910201</v>
+      </c>
+      <c r="I10">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J10">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N10">
+        <v>51.97477</v>
+      </c>
+      <c r="O10">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P10">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q10">
+        <v>22.58131084764111</v>
+      </c>
+      <c r="R10">
+        <v>203.23179762877</v>
+      </c>
+      <c r="S10">
+        <v>0.00616329260984751</v>
+      </c>
+      <c r="T10">
+        <v>0.00616329260984751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.910201</v>
+      </c>
+      <c r="I11">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J11">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N11">
+        <v>19.771439</v>
+      </c>
+      <c r="O11">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P11">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q11">
+        <v>8.590033394359889</v>
+      </c>
+      <c r="R11">
+        <v>77.310300549239</v>
+      </c>
+      <c r="S11">
+        <v>0.002344544552573313</v>
+      </c>
+      <c r="T11">
+        <v>0.002344544552573313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.910201</v>
+      </c>
+      <c r="I12">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J12">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.111195</v>
+      </c>
+      <c r="N12">
+        <v>0.333585</v>
+      </c>
+      <c r="O12">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P12">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q12">
+        <v>0.144931600065</v>
+      </c>
+      <c r="R12">
+        <v>1.304384400585</v>
+      </c>
+      <c r="S12">
+        <v>3.955730761783037E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.955730761783037E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.910201</v>
+      </c>
+      <c r="I13">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J13">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N13">
+        <v>214.856537</v>
+      </c>
+      <c r="O13">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P13">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q13">
+        <v>93.34802731488189</v>
+      </c>
+      <c r="R13">
+        <v>840.132245833937</v>
+      </c>
+      <c r="S13">
+        <v>0.02547820234066506</v>
+      </c>
+      <c r="T13">
+        <v>0.02547820234066506</v>
       </c>
     </row>
   </sheetData>
